--- a/18회차_실습체크리스트_김준영.xlsx
+++ b/18회차_실습체크리스트_김준영.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\SQL_실습\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -21,13 +21,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <x:si>
-    <x:t>07 Java 연동 JDBC 프로그래밍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실습한 단원의 항목은 v 체크해주세요.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름 : 김준영</x:t>
+    <x:t>01 DBMS 개요, 설치, 전체 운영 실습</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01 MySQL 기반
+RDBMS 활용과 JDBC</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -57,11 +55,26 @@
       <x:t>기본문제는</x:t>
     </x:r>
     <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="8"/>
-        <x:color rgb="ffa61c00"/>
-      </x:rPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="Arial"/>
+            <x:sz val="8"/>
+            <x:color rgb="ffa61c00"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="Arial"/>
+            <x:sz val="8"/>
+            <x:color rgb="ffa61c00"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
       <x:t xml:space="preserve"> </x:t>
     </x:r>
     <x:r>
@@ -116,11 +129,26 @@
       <x:t>로</x:t>
     </x:r>
     <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="8"/>
-        <x:color rgb="ffa61c00"/>
-      </x:rPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="Arial"/>
+            <x:sz val="8"/>
+            <x:color rgb="ffa61c00"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="Arial"/>
+            <x:sz val="8"/>
+            <x:color rgb="ffa61c00"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
       <x:t xml:space="preserve">, </x:t>
     </x:r>
     <x:r>
@@ -147,11 +175,26 @@
       <x:t>심화문제는</x:t>
     </x:r>
     <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="8"/>
-        <x:color rgb="ffa61c00"/>
-      </x:rPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="Arial"/>
+            <x:sz val="8"/>
+            <x:color rgb="ffa61c00"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="Arial"/>
+            <x:sz val="8"/>
+            <x:color rgb="ffa61c00"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
       <x:t xml:space="preserve"> </x:t>
     </x:r>
     <x:r>
@@ -206,11 +249,26 @@
       <x:t>으로</x:t>
     </x:r>
     <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="8"/>
-        <x:color rgb="ffa61c00"/>
-      </x:rPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="Arial"/>
+            <x:sz val="8"/>
+            <x:color rgb="ffa61c00"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="Arial"/>
+            <x:sz val="8"/>
+            <x:color rgb="ffa61c00"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
       <x:t xml:space="preserve"> </x:t>
     </x:r>
     <x:r>
@@ -237,11 +295,26 @@
       <x:t>풀어보는</x:t>
     </x:r>
     <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="8"/>
-        <x:color rgb="ffa61c00"/>
-      </x:rPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="Arial"/>
+            <x:sz val="8"/>
+            <x:color rgb="ffa61c00"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="Arial"/>
+            <x:sz val="8"/>
+            <x:color rgb="ffa61c00"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
       <x:t xml:space="preserve"> </x:t>
     </x:r>
     <x:r>
@@ -268,37 +341,58 @@
       <x:t>파트입니다</x:t>
     </x:r>
     <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="8"/>
-        <x:color rgb="ffa61c00"/>
-      </x:rPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="Arial"/>
+            <x:sz val="8"/>
+            <x:color rgb="ffa61c00"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="Arial"/>
+            <x:sz val="8"/>
+            <x:color rgb="ffa61c00"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
       <x:t>.</x:t>
     </x:r>
   </x:si>
   <x:si>
+    <x:t>실습 디렉터리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02 NoSQL 기반 MongoDB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02 데이터베이스 모델링, MySQL 유틸리티 사용법</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08 Java 연동 JDBC 프로그래밍-Travel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04 SQL 고급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05 테이블, 뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01 MongoDB</x:t>
+  </x:si>
+  <x:si>
     <x:t>실습 체크 리스트</x:t>
   </x:si>
   <x:si>
-    <x:t>01 MongoDB</x:t>
-  </x:si>
-  <x:si>
     <x:t>03 SQL 기본</x:t>
   </x:si>
   <x:si>
-    <x:t>04 SQL 고급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05 테이블, 뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02 NoSQL 기반 MongoDB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02 데이터베이스 모델링, MySQL 유틸리티 사용법</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08 Java 연동 JDBC 프로그래밍-Travel</x:t>
+    <x:t>이름 : 김준영</x:t>
   </x:si>
   <x:si>
     <x:t>항목</x:t>
@@ -313,39 +407,39 @@
     <x:t>단원</x:t>
   </x:si>
   <x:si>
+    <x:t>03_mysql(기본)</x:t>
+  </x:si>
+  <x:si>
     <x:t>02_mysql(기본)</x:t>
   </x:si>
   <x:si>
-    <x:t>03_mysql(기본)</x:t>
+    <x:t>06_mysql(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04_mysql(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01_mysql(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02_mongo(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05_mysql(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제출일자: 5월 28일(수)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02_mysql(심화)</x:t>
   </x:si>
   <x:si>
     <x:t>03_mysql(심화)</x:t>
   </x:si>
   <x:si>
-    <x:t>05_mysql(심화)</x:t>
-  </x:si>
-  <x:si>
     <x:t>01_mongo(심화)</x:t>
   </x:si>
   <x:si>
-    <x:t>04_mysql(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06_mysql(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02_mysql(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02_mongo(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01_mysql(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제출일자: 5월 28일(수)</x:t>
-  </x:si>
-  <x:si>
     <x:t>05_mysql(기본)</x:t>
   </x:si>
   <x:si>
@@ -358,38 +452,34 @@
     <x:t>08_mysql(기본)</x:t>
   </x:si>
   <x:si>
+    <x:t>07_mysql(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06_mysql(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06 인덱스, 사용자 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01_mongo(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04_mysql(심화)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01_mysql(기본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02_mongo(심화)</x:t>
+  </x:si>
+  <x:si>
     <x:t>08_mysql(심화)</x:t>
   </x:si>
   <x:si>
-    <x:t>01_mongo(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02_mongo(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07_mysql(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04_mysql(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06_mysql(심화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06 인덱스, 사용자 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01_mysql(기본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01 DBMS 개요, 설치, 전체 운영 실습</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01 MySQL 기반
-RDBMS 활용과 JDBC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실습 디렉터리</x:t>
+    <x:t>07 Java 연동 JDBC 프로그래밍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실습한 단원의 항목은 v 체크해주세요.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -438,11 +528,90 @@
       <x:sz val="8"/>
       <x:color rgb="ffffffff"/>
     </x:font>
+    <x:font>
+      <x:name val="Malgun Gothic"/>
+      <x:sz val="8"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Malgun Gothic"/>
+      <x:sz val="7"/>
+      <x:color rgb="ff666666"/>
+    </x:font>
+    <x:font>
+      <x:name val="Malgun Gothic"/>
+      <x:sz val="7"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
           <x:name val="Malgun Gothic"/>
+          <x:sz val="13"/>
+          <x:color rgb="ffffffff"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Malgun Gothic"/>
+          <x:sz val="13"/>
+          <x:color rgb="ffffffff"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
           <x:sz val="8"/>
+          <x:color rgb="ffa61c00"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="8"/>
+          <x:color rgb="ffa61c00"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Malgun Gothic"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Malgun Gothic"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="10"/>
           <x:color rgb="ff000000"/>
           <hs:size val="100"/>
           <hs:ratio val="100"/>
@@ -452,48 +621,8 @@
       </mc:Choice>
       <mc:Fallback>
         <x:font>
-          <x:name val="Malgun Gothic"/>
-          <x:sz val="8"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Malgun Gothic"/>
-          <x:sz val="7"/>
-          <x:color rgb="ff666666"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Malgun Gothic"/>
-          <x:sz val="7"/>
-          <x:color rgb="ff666666"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Malgun Gothic"/>
-          <x:sz val="7"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Malgun Gothic"/>
-          <x:sz val="7"/>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="10"/>
           <x:color rgb="ff000000"/>
         </x:font>
       </mc:Fallback>
@@ -520,43 +649,6 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:font>
-      <x:name val="Malgun Gothic"/>
-      <x:sz val="13"/>
-      <x:color rgb="ffffffff"/>
-      <x:b val="1"/>
-    </x:font>
-    <x:font>
-      <x:name val="Arial"/>
-      <x:sz val="8"/>
-      <x:color rgb="ffa61c00"/>
-    </x:font>
-    <x:font>
-      <x:name val="Malgun Gothic"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -683,13 +775,13 @@
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left>
-        <x:color auto="1"/>
+      <x:left style="medium">
+        <x:color rgb="ffffffff"/>
       </x:left>
       <x:right>
         <x:color auto="1"/>
       </x:right>
-      <x:top style="thin">
+      <x:top>
         <x:color auto="1"/>
       </x:top>
       <x:bottom>
@@ -706,20 +798,6 @@
       <x:top>
         <x:color auto="1"/>
       </x:top>
-      <x:bottom>
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="medium">
-        <x:color rgb="ffffffff"/>
-      </x:left>
-      <x:right>
-        <x:color auto="1"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
       <x:bottom style="thin">
         <x:color auto="1"/>
       </x:bottom>
@@ -777,6 +855,20 @@
         <x:color auto="1"/>
       </x:top>
       <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
@@ -889,157 +981,157 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1744,7 +1836,7 @@
   <x:dimension ref="A1:F17"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:F1"/>
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:F2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -1756,91 +1848,91 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="19.25">
-      <x:c r="A1" s="13" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B1" s="14"/>
-      <x:c r="C1" s="14"/>
-      <x:c r="D1" s="14"/>
-      <x:c r="E1" s="14"/>
-      <x:c r="F1" s="14"/>
+      <x:c r="A1" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B1" s="11"/>
+      <x:c r="C1" s="11"/>
+      <x:c r="D1" s="11"/>
+      <x:c r="E1" s="11"/>
+      <x:c r="F1" s="11"/>
     </x:row>
     <x:row r="2" spans="1:6">
-      <x:c r="A2" s="15" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="16"/>
-      <x:c r="C2" s="16"/>
-      <x:c r="D2" s="16"/>
-      <x:c r="E2" s="16"/>
-      <x:c r="F2" s="16"/>
+      <x:c r="A2" s="12" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="13"/>
+      <x:c r="C2" s="13"/>
+      <x:c r="D2" s="13"/>
+      <x:c r="E2" s="13"/>
+      <x:c r="F2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:6" ht="27" customHeight="1">
-      <x:c r="A3" s="19" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="20"/>
-      <x:c r="C3" s="20"/>
-      <x:c r="D3" s="21"/>
+      <x:c r="A3" s="14" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B3" s="15"/>
+      <x:c r="C3" s="15"/>
+      <x:c r="D3" s="16"/>
       <x:c r="E3" s="17" t="s">
-        <x:v>41</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F3" s="17"/>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C4" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D4" s="4" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B4" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C4" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D4" s="4" t="s">
+      <x:c r="E4" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="E4" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="F4" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="18" t="s">
-        <x:v>40</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B5" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C5" s="6"/>
       <x:c r="D5" s="7"/>
       <x:c r="E5" s="8" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F5" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="18"/>
       <x:c r="B6" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C6" s="6"/>
       <x:c r="D6" s="7"/>
       <x:c r="E6" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F6" s="9" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="18"/>
       <x:c r="B7" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C7" s="6"/>
       <x:c r="D7" s="7"/>
@@ -1848,7 +1940,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F7" s="9" t="s">
-        <x:v>18</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
@@ -1859,10 +1951,10 @@
       <x:c r="C8" s="6"/>
       <x:c r="D8" s="7"/>
       <x:c r="E8" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F8" s="9" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
@@ -1873,111 +1965,111 @@
       <x:c r="C9" s="6"/>
       <x:c r="D9" s="7"/>
       <x:c r="E9" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F9" s="9" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="18"/>
       <x:c r="B10" s="5" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C10" s="6"/>
       <x:c r="D10" s="7"/>
       <x:c r="E10" s="8" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F10" s="9" t="s">
-        <x:v>36</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="18"/>
       <x:c r="B11" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C11" s="6"/>
       <x:c r="D11" s="7"/>
       <x:c r="E11" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F11" s="9" t="s">
-        <x:v>34</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="18"/>
       <x:c r="B12" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="6"/>
       <x:c r="D12" s="7"/>
       <x:c r="E12" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F12" s="9" t="s">
-        <x:v>31</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="18" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B13" s="5" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="B13" s="5" t="s">
-        <x:v>5</x:v>
       </x:c>
       <x:c r="C13" s="6"/>
       <x:c r="D13" s="7"/>
       <x:c r="E13" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F13" s="9" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="18"/>
       <x:c r="B14" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C14" s="6"/>
       <x:c r="D14" s="7"/>
       <x:c r="E14" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F14" s="9" t="s">
-        <x:v>33</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
-      <x:c r="A15" s="12"/>
-      <x:c r="B15" s="12"/>
-      <x:c r="C15" s="12"/>
-      <x:c r="D15" s="12"/>
-      <x:c r="E15" s="12"/>
-      <x:c r="F15" s="12"/>
+      <x:c r="A15" s="19"/>
+      <x:c r="B15" s="19"/>
+      <x:c r="C15" s="19"/>
+      <x:c r="D15" s="19"/>
+      <x:c r="E15" s="19"/>
+      <x:c r="F15" s="19"/>
     </x:row>
     <x:row r="16" spans="1:6">
-      <x:c r="A16" s="11" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B16" s="11"/>
-      <x:c r="C16" s="11"/>
-      <x:c r="D16" s="11"/>
-      <x:c r="E16" s="11"/>
-      <x:c r="F16" s="11"/>
+      <x:c r="A16" s="20" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B16" s="20"/>
+      <x:c r="C16" s="20"/>
+      <x:c r="D16" s="20"/>
+      <x:c r="E16" s="20"/>
+      <x:c r="F16" s="20"/>
     </x:row>
     <x:row r="17" spans="1:6">
-      <x:c r="A17" s="10" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B17" s="10"/>
-      <x:c r="C17" s="10"/>
-      <x:c r="D17" s="10"/>
-      <x:c r="E17" s="10"/>
-      <x:c r="F17" s="10"/>
+      <x:c r="A17" s="21" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B17" s="21"/>
+      <x:c r="C17" s="21"/>
+      <x:c r="D17" s="21"/>
+      <x:c r="E17" s="21"/>
+      <x:c r="F17" s="21"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="9">
@@ -1991,7 +2083,7 @@
     <x:mergeCell ref="A16:F16"/>
     <x:mergeCell ref="A17:F17"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:legacyDrawing r:id="rId1"/>
 </x:worksheet>
